--- a/youth_recidivism/Codebook_Case Management Notes.xlsx
+++ b/youth_recidivism/Codebook_Case Management Notes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3aff\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lw/Desktop/CS506/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="962" documentId="11_1E8344687DABFF062206D1B9FDF1B2B62D73FDF8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF9EE6B3-CAEE-430D-9518-1F91EE98349F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1853390C-8214-FD47-8357-28FA8ED9E8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -346,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,19 +802,19 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="39.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="57.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -834,7 +834,7 @@
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -852,7 +852,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
@@ -870,7 +870,7 @@
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -906,7 +906,7 @@
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="45">
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="30">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="45">
+    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" s="12" customFormat="1">
+    <row r="17" spans="1:3" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
@@ -978,7 +978,7 @@
       </c>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="33" customHeight="1">
+    <row r="19" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -996,7 +996,7 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="63" customHeight="1">
+    <row r="22" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="75">
+    <row r="24" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>47</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>49</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>51</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>53</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>55</v>
       </c>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>57</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="45">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>61</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>63</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>65</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>67</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>69</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>71</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="51" customHeight="1">
+    <row r="37" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>73</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="31.5" customHeight="1">
+    <row r="38" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>75</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="43.5" customHeight="1">
+    <row r="39" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>77</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>79</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>81</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="32.25" customHeight="1">
+    <row r="42" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>83</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>85</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="62.25" customHeight="1">
+    <row r="44" spans="1:3" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>87</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="51" customHeight="1">
+    <row r="45" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>89</v>
       </c>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>91</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>93</v>
       </c>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>95</v>
       </c>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>97</v>
       </c>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" ht="30">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>99</v>
       </c>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>101</v>
       </c>
@@ -1275,217 +1275,217 @@
       </c>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" ht="43.5" customHeight="1">
+    <row r="56" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" ht="47.25" customHeight="1">
+    <row r="57" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="11"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="11"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="11"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="11"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="11"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="11"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16"/>
       <c r="B87" s="8"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="9"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="11"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="11"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="11"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="11"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="11"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="11"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -1496,12 +1496,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100141615CA80577F4A9C5E161ECFC0F02A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b25a2d2db4fa9f70111271be1f807b61">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="09ccb1f6-87ee-42f1-be12-75669006ba51" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b9223eac8ac4a70ba7fced621ca311d" ns2:_="">
     <xsd:import namespace="09ccb1f6-87ee-42f1-be12-75669006ba51"/>
@@ -1685,6 +1679,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1695,13 +1695,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF0FB40-06F4-408F-94B8-1D1EA544CF68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283AD910-A100-438C-B0DD-F2AAB798440D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="09ccb1f6-87ee-42f1-be12-75669006ba51"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{283AD910-A100-438C-B0DD-F2AAB798440D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF0FB40-06F4-408F-94B8-1D1EA544CF68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F287B7C2-2088-47E6-B9EA-2B5C00568C43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F287B7C2-2088-47E6-B9EA-2B5C00568C43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>